--- a/Time_series_forecasting/a. Input time series sequences/Ext markers seq 6 30 Hz/pred_par.xlsx
+++ b/Time_series_forecasting/a. Input time series sequences/Ext markers seq 6 30 Hz/pred_par.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47A51FF-737E-4A22-BD4E-64A92AE57369}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8137937-EE15-4232-9203-9B8A578E4678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67650" yWindow="4245" windowWidth="23025" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Remarks :</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>data_type</t>
+  </si>
+  <si>
+    <t>svr_kernel_scale</t>
+  </si>
+  <si>
+    <t>svr_epsilon</t>
+  </si>
+  <si>
+    <t>svr_box_constraint</t>
   </si>
 </sst>
 </file>
@@ -115,8 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -125,7 +133,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -141,9 +149,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -181,9 +189,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,26 +224,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,26 +259,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -461,33 +435,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="1" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="5.265625" customWidth="1"/>
+    <col min="5" max="5" width="20.73046875" customWidth="1"/>
+    <col min="6" max="6" width="20.3984375" customWidth="1"/>
+    <col min="7" max="7" width="16.3984375" customWidth="1"/>
+    <col min="8" max="8" width="13.3984375" customWidth="1"/>
+    <col min="9" max="9" width="21.1328125" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
       <c r="D1" t="s">
@@ -496,13 +469,13 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
       <c r="I1" t="s">
@@ -511,15 +484,24 @@
       <c r="J1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
         <v>900</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>3513</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>1800</v>
       </c>
       <c r="D2">
@@ -534,7 +516,7 @@
       <c r="G2">
         <v>0.1</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
@@ -543,111 +525,117 @@
       <c r="J2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="K2">
+        <v>50</v>
+      </c>
+      <c r="L2">
+        <v>0.05</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="1">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D14">
         <v>10</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>55</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>0.05</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>0.05</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="1">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D15">
         <v>55</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>55</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>0.02</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <v>0.05</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="1">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D16">
         <v>55</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>25</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>0.02</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
         <v>0.1</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="4"/>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
